--- a/biology/Botanique/Fuchsia_boliviana/Fuchsia_boliviana.xlsx
+++ b/biology/Botanique/Fuchsia_boliviana/Fuchsia_boliviana.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Fuchsia boliviana est une espèce de Fuchsia de la famille des Onagraceae. Il est originaire du sud du Pérou, de la Bolivie et du nord de l'Argentine.
@@ -512,10 +524,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est un arbuste à feuilles persistantes de taille moyenne, atteignant 2 à 4 m de haut, rarement jusqu'à 6 m, au port étalé et ouvert. Il a de grandes feuilles velues vert moyen et des pétioles. Il présente de grandes corymbes tombantes atteignant 20 cm de long, portées à la fin de l'été et en automne par des fleurs rouge écarlate. Les fleurs individuelles mesurant 3 à 7 cm de long. Il existe une forme à floraison blanche nommée « Alba », avec un tube blanc et des pétales écarlates[2]. Après la floraison, il porte de petits fruits rouge-violet comestibles de 10 à 26 mm de long[3],[4].
-Fuchsia boliviana est largement cultivé à l'ombre ou à mi-ombre dans les climats plus frais et subtropicaux. Les plantes nécessitent une protection contre le soleil direct et des températures supérieures à 40 °C. Les plantes résistent à environ −4 °C pendant de courtes périodes. La multiplication se fait par graines ou par boutures[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un arbuste à feuilles persistantes de taille moyenne, atteignant 2 à 4 m de haut, rarement jusqu'à 6 m, au port étalé et ouvert. Il a de grandes feuilles velues vert moyen et des pétioles. Il présente de grandes corymbes tombantes atteignant 20 cm de long, portées à la fin de l'été et en automne par des fleurs rouge écarlate. Les fleurs individuelles mesurant 3 à 7 cm de long. Il existe une forme à floraison blanche nommée « Alba », avec un tube blanc et des pétales écarlates. Après la floraison, il porte de petits fruits rouge-violet comestibles de 10 à 26 mm de long,.
+Fuchsia boliviana est largement cultivé à l'ombre ou à mi-ombre dans les climats plus frais et subtropicaux. Les plantes nécessitent une protection contre le soleil direct et des températures supérieures à 40 °C. Les plantes résistent à environ −4 °C pendant de courtes périodes. La multiplication se fait par graines ou par boutures.
 </t>
         </is>
       </c>
